--- a/data.xlsx
+++ b/data.xlsx
@@ -16,6 +16,29 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>b1</t>
+  </si>
+  <si>
+    <t>c1</t>
+  </si>
+  <si>
+    <t>a2</t>
+  </si>
+  <si>
+    <t>b2</t>
+  </si>
+  <si>
+    <t>c2</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -331,12 +354,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>a1</t>
   </si>
@@ -37,12 +37,16 @@
   </si>
   <si>
     <t>c2</t>
+  </si>
+  <si>
+    <t>Ayush Kumar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -354,7 +358,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -384,6 +388,21 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
